--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1590.790032874819</v>
+        <v>2292.996863021594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.61003287482064</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1232.889999999998</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321.29</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.72653447714343</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.39136528268722</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.99312545677591</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.95786265908334</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.11244731462912</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,216 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.59500000000058</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>75.8750000000006</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39500000000058</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>75.07500000000057</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.23000000000059</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>192.0400000000005</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>177.55</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1100000000002</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>179.6100000000003</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>185.0800000000007</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>139.0849999999997</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>145.8099999999997</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>129.35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>146.2349999999997</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>143.5749999999997</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>139.0849999999997</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>145.8099999999997</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>129.35</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.2349999999997</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>143.5749999999997</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1099999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0800000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>39.08499999999972</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>45.80999999999969</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>46.23499999999973</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>43.5749999999997</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>92.04000000000025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>77.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.1099999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>79.6099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>85.08000000000041</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1970,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1981,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -1992,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2003,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2014,12 +2279,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
